--- a/individual_project.xlsx
+++ b/individual_project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="1160" windowWidth="26500" windowHeight="10320" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="580" yWindow="1160" windowWidth="26500" windowHeight="10320" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="7" r:id="rId1"/>
@@ -15,9 +15,10 @@
     <sheet name="Figure 5" sheetId="9" r:id="rId6"/>
     <sheet name="GP-Fig.1" sheetId="10" r:id="rId7"/>
     <sheet name="GP-Fig.2" sheetId="13" r:id="rId8"/>
-    <sheet name="GP-Fig.3" sheetId="14" r:id="rId9"/>
-    <sheet name="GP-Fig.4" sheetId="15" r:id="rId10"/>
-    <sheet name="GP-Fig.5" sheetId="16" r:id="rId11"/>
+    <sheet name="sheet 2 again" sheetId="17" r:id="rId9"/>
+    <sheet name="GP-Fig.3" sheetId="14" r:id="rId10"/>
+    <sheet name="GP-Fig.4" sheetId="15" r:id="rId11"/>
+    <sheet name="GP-Fig.5" sheetId="16" r:id="rId12"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="123">
   <si>
     <t>Figure 1</t>
   </si>
@@ -888,9 +889,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1065,7 +1074,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="24">
+  <cellStyles count="32">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1077,6 +1086,10 @@
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1088,6 +1101,10 @@
     <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1692,12 +1709,103 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="35">
+        <v>0.16713043799999999</v>
+      </c>
+      <c r="B2" s="35">
+        <v>1.8526387230000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="35">
+        <v>0.27226801899999997</v>
+      </c>
+      <c r="B3" s="35">
+        <v>1.4360074229999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="35">
+        <v>0.63716203000000005</v>
+      </c>
+      <c r="B4" s="35">
+        <v>1.292946962</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="35">
+        <v>4.1103580000000001E-2</v>
+      </c>
+      <c r="B5" s="35">
+        <v>0.87812581899999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="35">
+        <v>0</v>
+      </c>
+      <c r="B6" s="35">
+        <v>0.69243697699999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="35">
+        <v>4.8797775000000002E-2</v>
+      </c>
+      <c r="B7" s="35">
+        <v>0.39718788100000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="35">
+        <v>5.611795E-2</v>
+      </c>
+      <c r="B8" s="35">
+        <v>1.9049306829999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="35">
+        <v>8.6118838000000003E-2</v>
+      </c>
+      <c r="B9" s="35">
+        <v>0.57082378899999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="35">
+        <v>0.36641100999999998</v>
+      </c>
+      <c r="B10" s="35">
+        <v>2.498550184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="35">
+        <v>0.17541136800000001</v>
+      </c>
+      <c r="B11" s="35">
+        <v>1.7149402920000001</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1709,9 +1817,61 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="14">
+        <v>0.21181610000000001</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0.11257540000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="14">
+        <v>0.10726189999999999</v>
+      </c>
+      <c r="B3" s="14">
+        <v>0.25844889999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="14">
+        <v>0.136182</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0.41081820000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2127,7 +2287,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A2" sqref="A2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2781,7 +2941,7 @@
   <dimension ref="A1:M329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -10087,7 +10247,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -10160,101 +10320,67 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="35">
-        <v>0.16713043799999999</v>
-      </c>
-      <c r="B2" s="35">
-        <v>1.8526387230000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="35">
-        <v>0.27226801899999997</v>
-      </c>
-      <c r="B3" s="35">
-        <v>1.4360074229999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="35">
-        <v>0.63716203000000005</v>
-      </c>
-      <c r="B4" s="35">
-        <v>1.292946962</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="35">
-        <v>4.1103580000000001E-2</v>
-      </c>
-      <c r="B5" s="35">
-        <v>0.87812581899999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="35">
-        <v>0</v>
-      </c>
-      <c r="B6" s="35">
-        <v>0.69243697699999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="35">
-        <v>4.8797775000000002E-2</v>
-      </c>
-      <c r="B7" s="35">
-        <v>0.39718788100000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="35">
-        <v>5.611795E-2</v>
-      </c>
-      <c r="B8" s="35">
-        <v>1.9049306829999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="35">
-        <v>8.6118838000000003E-2</v>
-      </c>
-      <c r="B9" s="35">
-        <v>0.57082378899999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="35">
-        <v>0.36641100999999998</v>
-      </c>
-      <c r="B10" s="35">
-        <v>2.498550184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="35">
-        <v>0.17541136800000001</v>
-      </c>
-      <c r="B11" s="35">
-        <v>1.7149402920000001</v>
-      </c>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>57</v>
+      </c>
+      <c r="B2">
+        <v>39</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>88</v>
+      </c>
+      <c r="B3">
+        <v>168</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/individual_project.xlsx
+++ b/individual_project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="1160" windowWidth="26500" windowHeight="10320" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="280" yWindow="1440" windowWidth="26500" windowHeight="10320" tabRatio="840" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="128">
   <si>
     <t>Figure 1</t>
   </si>
@@ -399,6 +399,21 @@
   </si>
   <si>
     <t>brine shrimp egg ingestion (mm^3)</t>
+  </si>
+  <si>
+    <t>MP_count</t>
+  </si>
+  <si>
+    <t>colony</t>
+  </si>
+  <si>
+    <t>MP_type</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>MP_ingested</t>
   </si>
 </sst>
 </file>
@@ -889,7 +904,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="32">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -922,8 +937,24 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1070,11 +1101,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="32">
+  <cellStyles count="48">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1090,6 +1122,14 @@
     <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1105,6 +1145,14 @@
     <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -10163,77 +10211,173 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="90" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" ht="14">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="91">
+        <v>1</v>
+      </c>
+      <c r="C2" s="91">
+        <v>24.6</v>
+      </c>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" ht="14">
+      <c r="A3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="91">
+        <v>2</v>
+      </c>
+      <c r="C3" s="91">
+        <v>8.61</v>
+      </c>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="1:4" ht="14">
+      <c r="A4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="91">
+        <v>3</v>
+      </c>
+      <c r="C4" s="91">
+        <v>16.13</v>
+      </c>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="1:4" ht="14">
+      <c r="A5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="91">
+        <v>4</v>
+      </c>
+      <c r="C5" s="91">
+        <v>21.66</v>
+      </c>
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" spans="1:4" ht="14">
+      <c r="A6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B6" s="91">
+        <v>1</v>
+      </c>
+      <c r="C6" s="91">
+        <v>84.66</v>
+      </c>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:4" ht="14">
+      <c r="A7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="91">
+        <v>2</v>
+      </c>
+      <c r="C7" s="91">
+        <v>79.69</v>
+      </c>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="1:4" ht="14">
+      <c r="A8" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="91">
+        <v>3</v>
+      </c>
+      <c r="C8" s="91">
+        <v>77.418999999999997</v>
+      </c>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:4" ht="14">
+      <c r="A9" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="91">
+        <v>4</v>
+      </c>
+      <c r="C9" s="91">
+        <v>86.667000000000002</v>
+      </c>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="1:4" ht="14">
+      <c r="A10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="14">
-      <c r="A2" s="4">
-        <v>24.6</v>
-      </c>
-      <c r="B2" s="4">
-        <v>84.66</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B10" s="91">
+        <v>1</v>
+      </c>
+      <c r="C10" s="91">
         <v>16.329999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="14">
-      <c r="A3" s="8">
-        <v>8.61</v>
-      </c>
-      <c r="B3" s="8">
-        <v>79.69</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="1:4" ht="14">
+      <c r="A11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="91">
+        <v>2</v>
+      </c>
+      <c r="C11" s="91">
         <v>15.07</v>
       </c>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="14">
-      <c r="A4" s="8">
-        <v>16.13</v>
-      </c>
-      <c r="B4" s="8">
-        <v>77.418999999999997</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:4" ht="14">
+      <c r="A12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="91">
+        <v>3</v>
+      </c>
+      <c r="C12" s="91">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="14">
-      <c r="A5" s="11">
-        <v>21.66</v>
-      </c>
-      <c r="B5" s="11">
-        <v>86.667000000000002</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:4" ht="14">
+      <c r="A13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="91">
+        <v>4</v>
+      </c>
+      <c r="C13" s="91">
         <v>10.67</v>
       </c>
-      <c r="D5" s="90"/>
+      <c r="D13" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10244,72 +10388,127 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="14">
+      <c r="C2" s="14">
         <v>57</v>
       </c>
-      <c r="B2" s="14">
-        <v>88</v>
-      </c>
-      <c r="C2" s="14">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>57.516339870000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="14">
         <v>39</v>
       </c>
-      <c r="B3" s="14">
-        <v>168</v>
-      </c>
-      <c r="C3" s="14">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>74.666666669999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="14">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="14">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="14">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="14">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="14">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="14">
         <v>31</v>
       </c>
-      <c r="C4" s="14">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="14">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>88.571428569999995</v>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="14">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="14">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10320,32 +10519,38 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A1">
+        <v>57</v>
+      </c>
+      <c r="B1">
+        <v>39</v>
+      </c>
+      <c r="C1">
+        <v>8</v>
+      </c>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="B2">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
@@ -10354,33 +10559,18 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>31</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/individual_project.xlsx
+++ b/individual_project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="1440" windowWidth="26500" windowHeight="10320" tabRatio="840" activeTab="7"/>
+    <workbookView xWindow="280" yWindow="1440" windowWidth="26500" windowHeight="10320" tabRatio="840" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="130">
   <si>
     <t>Figure 1</t>
   </si>
@@ -414,6 +414,12 @@
   </si>
   <si>
     <t>MP_ingested</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>live_BS</t>
   </si>
 </sst>
 </file>
@@ -904,9 +910,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="48">
+  <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1080,6 +1100,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1101,12 +1125,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="48">
+  <cellStyles count="62">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1130,6 +1150,13 @@
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1153,6 +1180,13 @@
     <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1424,7 +1458,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1707,10 +1741,10 @@
       <c r="B22" s="74">
         <v>15</v>
       </c>
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="81"/>
+      <c r="D22" s="83"/>
       <c r="E22" s="74" t="s">
         <v>117</v>
       </c>
@@ -1865,48 +1899,94 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0.21181610000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0.10726189999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.136182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="14">
-        <v>0.21181610000000001</v>
-      </c>
-      <c r="B2" s="14">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14">
         <v>0.11257540000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="14">
-        <v>0.10726189999999999</v>
-      </c>
-      <c r="B3" s="14">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14">
         <v>0.25844889999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="14">
-        <v>0.136182</v>
-      </c>
-      <c r="B4" s="14">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="14">
         <v>0.41081820000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1920,7 +2000,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2057,11 +2137,11 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="14">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2150,10 +2230,10 @@
         <v>123</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="84" t="s">
+      <c r="K5" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="83"/>
+      <c r="L5" s="85"/>
       <c r="M5" s="6" t="s">
         <v>12</v>
       </c>
@@ -2872,10 +2952,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="85"/>
+      <c r="B1" s="87"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="63" t="s">
@@ -2989,7 +3069,7 @@
   <dimension ref="A1:M329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3003,17 +3083,17 @@
         <v>13</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="88"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="13" t="s">
@@ -10015,7 +10095,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B12"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -10025,17 +10105,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="91"/>
       <c r="C1" s="39"/>
       <c r="D1" s="39"/>
       <c r="E1" s="39"/>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="89"/>
+      <c r="G1" s="91"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="63" t="s">
@@ -10214,19 +10294,19 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:4" ht="14">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="81" t="s">
         <v>123</v>
       </c>
       <c r="D1" s="17"/>
@@ -10235,10 +10315,10 @@
       <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="91">
+      <c r="B2" s="82">
         <v>1</v>
       </c>
-      <c r="C2" s="91">
+      <c r="C2" s="82">
         <v>24.6</v>
       </c>
       <c r="D2" s="17"/>
@@ -10247,10 +10327,10 @@
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="91">
+      <c r="B3" s="82">
         <v>2</v>
       </c>
-      <c r="C3" s="91">
+      <c r="C3" s="82">
         <v>8.61</v>
       </c>
       <c r="D3" s="17"/>
@@ -10259,10 +10339,10 @@
       <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="91">
+      <c r="B4" s="82">
         <v>3</v>
       </c>
-      <c r="C4" s="91">
+      <c r="C4" s="82">
         <v>16.13</v>
       </c>
       <c r="D4" s="17"/>
@@ -10271,10 +10351,10 @@
       <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="91">
+      <c r="B5" s="82">
         <v>4</v>
       </c>
-      <c r="C5" s="91">
+      <c r="C5" s="82">
         <v>21.66</v>
       </c>
       <c r="D5" s="17"/>
@@ -10283,10 +10363,10 @@
       <c r="A6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="91">
+      <c r="B6" s="82">
         <v>1</v>
       </c>
-      <c r="C6" s="91">
+      <c r="C6" s="82">
         <v>84.66</v>
       </c>
       <c r="D6" s="17"/>
@@ -10295,10 +10375,10 @@
       <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="91">
+      <c r="B7" s="82">
         <v>2</v>
       </c>
-      <c r="C7" s="91">
+      <c r="C7" s="82">
         <v>79.69</v>
       </c>
       <c r="D7" s="17"/>
@@ -10307,10 +10387,10 @@
       <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="91">
+      <c r="B8" s="82">
         <v>3</v>
       </c>
-      <c r="C8" s="91">
+      <c r="C8" s="82">
         <v>77.418999999999997</v>
       </c>
       <c r="D8" s="17"/>
@@ -10319,10 +10399,10 @@
       <c r="A9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="91">
+      <c r="B9" s="82">
         <v>4</v>
       </c>
-      <c r="C9" s="91">
+      <c r="C9" s="82">
         <v>86.667000000000002</v>
       </c>
       <c r="D9" s="17"/>
@@ -10331,10 +10411,10 @@
       <c r="A10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="91">
+      <c r="B10" s="82">
         <v>1</v>
       </c>
-      <c r="C10" s="91">
+      <c r="C10" s="82">
         <v>16.329999999999998</v>
       </c>
       <c r="D10" s="17"/>
@@ -10343,10 +10423,10 @@
       <c r="A11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="91">
+      <c r="B11" s="82">
         <v>2</v>
       </c>
-      <c r="C11" s="91">
+      <c r="C11" s="82">
         <v>15.07</v>
       </c>
       <c r="D11" s="17"/>
@@ -10355,10 +10435,10 @@
       <c r="A12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="91">
+      <c r="B12" s="82">
         <v>3</v>
       </c>
-      <c r="C12" s="91">
+      <c r="C12" s="82">
         <v>10</v>
       </c>
       <c r="D12" s="17"/>
@@ -10367,10 +10447,10 @@
       <c r="A13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="91">
+      <c r="B13" s="82">
         <v>4</v>
       </c>
-      <c r="C13" s="91">
+      <c r="C13" s="82">
         <v>10.67</v>
       </c>
       <c r="D13" s="17"/>
@@ -10390,7 +10470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/individual_project.xlsx
+++ b/individual_project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="1440" windowWidth="26500" windowHeight="10320" tabRatio="840" activeTab="10"/>
+    <workbookView xWindow="280" yWindow="1440" windowWidth="26500" windowHeight="10320" tabRatio="840" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="7" r:id="rId1"/>
@@ -17,8 +17,10 @@
     <sheet name="GP-Fig.2" sheetId="13" r:id="rId8"/>
     <sheet name="sheet 2 again" sheetId="17" r:id="rId9"/>
     <sheet name="GP-Fig.3" sheetId="14" r:id="rId10"/>
-    <sheet name="GP-Fig.4" sheetId="15" r:id="rId11"/>
-    <sheet name="GP-Fig.5" sheetId="16" r:id="rId12"/>
+    <sheet name="GP-Fig.4-Cope" sheetId="15" r:id="rId11"/>
+    <sheet name="GP-Fig.4-Brine" sheetId="18" r:id="rId12"/>
+    <sheet name="GP-Fig.4-Egg" sheetId="19" r:id="rId13"/>
+    <sheet name="GP-Fig.5" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="132">
   <si>
     <t>Figure 1</t>
   </si>
@@ -420,6 +422,12 @@
   </si>
   <si>
     <t>live_BS</t>
+  </si>
+  <si>
+    <t>eggs</t>
+  </si>
+  <si>
+    <t>brine</t>
   </si>
 </sst>
 </file>
@@ -910,7 +918,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="62">
+  <cellStyleXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -973,8 +981,20 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1100,6 +1120,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1126,7 +1147,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="62">
+  <cellStyles count="74">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1157,6 +1178,12 @@
     <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1187,6 +1214,12 @@
     <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1741,10 +1774,10 @@
       <c r="B22" s="74">
         <v>15</v>
       </c>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="83"/>
+      <c r="D22" s="84"/>
       <c r="E22" s="74" t="s">
         <v>117</v>
       </c>
@@ -1901,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1996,6 +2029,200 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="81">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14">
+        <v>2.53939E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="81">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1.280162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="81">
+        <v>3</v>
+      </c>
+      <c r="C4" s="14">
+        <v>5.5023000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="81">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.24817529999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="81">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.1377488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="81">
+        <v>3</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.2418159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="81">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0.11250082</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="81">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0.42108231000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="81">
+        <v>3</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.11986143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="81">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="81">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="81">
+        <v>3</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -2137,11 +2364,11 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="14">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2230,10 +2457,10 @@
         <v>123</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="86" t="s">
+      <c r="K5" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="85"/>
+      <c r="L5" s="86"/>
       <c r="M5" s="6" t="s">
         <v>12</v>
       </c>
@@ -2952,10 +3179,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="87"/>
+      <c r="B1" s="88"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="63" t="s">
@@ -3069,7 +3296,7 @@
   <dimension ref="A1:M329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B9" sqref="B9:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3083,17 +3310,17 @@
         <v>13</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="E1" s="88" t="s">
+      <c r="E1" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="91"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="13" t="s">
@@ -10105,17 +10332,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="91"/>
+      <c r="B1" s="92"/>
       <c r="C1" s="39"/>
       <c r="D1" s="39"/>
       <c r="E1" s="39"/>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="91"/>
+      <c r="G1" s="92"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="63" t="s">
@@ -10300,13 +10527,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:4" ht="14">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="82" t="s">
         <v>123</v>
       </c>
       <c r="D1" s="17"/>
@@ -10315,10 +10542,10 @@
       <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="82">
+      <c r="B2" s="83">
         <v>1</v>
       </c>
-      <c r="C2" s="82">
+      <c r="C2" s="83">
         <v>24.6</v>
       </c>
       <c r="D2" s="17"/>
@@ -10327,10 +10554,10 @@
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="82">
+      <c r="B3" s="83">
         <v>2</v>
       </c>
-      <c r="C3" s="82">
+      <c r="C3" s="83">
         <v>8.61</v>
       </c>
       <c r="D3" s="17"/>
@@ -10339,10 +10566,10 @@
       <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="82">
+      <c r="B4" s="83">
         <v>3</v>
       </c>
-      <c r="C4" s="82">
+      <c r="C4" s="83">
         <v>16.13</v>
       </c>
       <c r="D4" s="17"/>
@@ -10351,10 +10578,10 @@
       <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="82">
+      <c r="B5" s="83">
         <v>4</v>
       </c>
-      <c r="C5" s="82">
+      <c r="C5" s="83">
         <v>21.66</v>
       </c>
       <c r="D5" s="17"/>
@@ -10363,10 +10590,10 @@
       <c r="A6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="82">
+      <c r="B6" s="83">
         <v>1</v>
       </c>
-      <c r="C6" s="82">
+      <c r="C6" s="83">
         <v>84.66</v>
       </c>
       <c r="D6" s="17"/>
@@ -10375,10 +10602,10 @@
       <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="82">
+      <c r="B7" s="83">
         <v>2</v>
       </c>
-      <c r="C7" s="82">
+      <c r="C7" s="83">
         <v>79.69</v>
       </c>
       <c r="D7" s="17"/>
@@ -10387,10 +10614,10 @@
       <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="82">
+      <c r="B8" s="83">
         <v>3</v>
       </c>
-      <c r="C8" s="82">
+      <c r="C8" s="83">
         <v>77.418999999999997</v>
       </c>
       <c r="D8" s="17"/>
@@ -10399,10 +10626,10 @@
       <c r="A9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="82">
+      <c r="B9" s="83">
         <v>4</v>
       </c>
-      <c r="C9" s="82">
+      <c r="C9" s="83">
         <v>86.667000000000002</v>
       </c>
       <c r="D9" s="17"/>
@@ -10411,10 +10638,10 @@
       <c r="A10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="82">
+      <c r="B10" s="83">
         <v>1</v>
       </c>
-      <c r="C10" s="82">
+      <c r="C10" s="83">
         <v>16.329999999999998</v>
       </c>
       <c r="D10" s="17"/>
@@ -10423,10 +10650,10 @@
       <c r="A11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="82">
+      <c r="B11" s="83">
         <v>2</v>
       </c>
-      <c r="C11" s="82">
+      <c r="C11" s="83">
         <v>15.07</v>
       </c>
       <c r="D11" s="17"/>
@@ -10435,10 +10662,10 @@
       <c r="A12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="82">
+      <c r="B12" s="83">
         <v>3</v>
       </c>
-      <c r="C12" s="82">
+      <c r="C12" s="83">
         <v>10</v>
       </c>
       <c r="D12" s="17"/>
@@ -10447,10 +10674,10 @@
       <c r="A13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="82">
+      <c r="B13" s="83">
         <v>4</v>
       </c>
-      <c r="C13" s="82">
+      <c r="C13" s="83">
         <v>10.67</v>
       </c>
       <c r="D13" s="17"/>

--- a/individual_project.xlsx
+++ b/individual_project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="1440" windowWidth="26500" windowHeight="10320" tabRatio="840" firstSheet="2" activeTab="11"/>
+    <workbookView xWindow="120" yWindow="2400" windowWidth="26500" windowHeight="10320" tabRatio="840" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="131">
   <si>
     <t>Figure 1</t>
   </si>
@@ -419,9 +419,6 @@
   </si>
   <si>
     <t>treatment</t>
-  </si>
-  <si>
-    <t>live_BS</t>
   </si>
   <si>
     <t>eggs</t>
@@ -918,9 +915,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="74">
+  <cellStyleXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1147,7 +1146,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="74">
+  <cellStyles count="76">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1184,6 +1183,7 @@
     <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1220,6 +1220,7 @@
     <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1932,15 +1933,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>128</v>
       </c>
@@ -1948,10 +1949,10 @@
         <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1961,8 +1962,10 @@
       <c r="C2" s="14">
         <v>0.21181610000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1972,8 +1975,10 @@
       <c r="C3" s="14">
         <v>0.10726189999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1983,8 +1988,10 @@
       <c r="C4" s="14">
         <v>0.136182</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1994,8 +2001,10 @@
       <c r="C5" s="14">
         <v>0.11257540000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2005,8 +2014,10 @@
       <c r="C6" s="14">
         <v>0.25844889999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2032,7 +2043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -2046,7 +2057,7 @@
         <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2143,7 +2154,7 @@
         <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3296,7 +3307,7 @@
   <dimension ref="A1:M329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B11"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>

--- a/individual_project.xlsx
+++ b/individual_project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="2400" windowWidth="26500" windowHeight="10320" tabRatio="840" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="120" yWindow="2400" windowWidth="26500" windowHeight="10320" tabRatio="840" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="134">
   <si>
     <t>Figure 1</t>
   </si>
@@ -425,6 +425,15 @@
   </si>
   <si>
     <t>brine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">microplastics </t>
+  </si>
+  <si>
+    <t>intake</t>
+  </si>
+  <si>
+    <t>particles_consumed</t>
   </si>
 </sst>
 </file>
@@ -915,9 +924,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="76">
+  <cellStyleXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1146,7 +1163,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="76">
+  <cellStyles count="84">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1184,6 +1201,10 @@
     <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1221,6 +1242,10 @@
     <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1825,104 +1850,183 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="63" t="s">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="35">
+      <c r="B2" s="35">
         <v>0.16713043799999999</v>
       </c>
-      <c r="B2" s="35">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="35">
+        <v>0.27226801899999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="35">
+        <v>0.63716203000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="35">
+        <v>4.1103580000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="35">
+        <v>4.8797775000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="35">
+        <v>5.611795E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="35">
+        <v>8.6118838000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="35">
+        <v>0.36641100999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="35">
+        <v>0.17541136800000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="35">
         <v>1.8526387230000001</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="35">
-        <v>0.27226801899999997</v>
-      </c>
-      <c r="B3" s="35">
+    <row r="13" spans="1:2">
+      <c r="A13" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="35">
         <v>1.4360074229999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="35">
-        <v>0.63716203000000005</v>
-      </c>
-      <c r="B4" s="35">
+    <row r="14" spans="1:2">
+      <c r="A14" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="35">
         <v>1.292946962</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="35">
-        <v>4.1103580000000001E-2</v>
-      </c>
-      <c r="B5" s="35">
+    <row r="15" spans="1:2">
+      <c r="A15" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="35">
         <v>0.87812581899999997</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="35">
-        <v>0</v>
-      </c>
-      <c r="B6" s="35">
+    <row r="16" spans="1:2">
+      <c r="A16" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="35">
         <v>0.69243697699999995</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="35">
-        <v>4.8797775000000002E-2</v>
-      </c>
-      <c r="B7" s="35">
+    <row r="17" spans="1:2">
+      <c r="A17" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="35">
         <v>0.39718788100000002</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="35">
-        <v>5.611795E-2</v>
-      </c>
-      <c r="B8" s="35">
+    <row r="18" spans="1:2">
+      <c r="A18" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="35">
         <v>1.9049306829999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="35">
-        <v>8.6118838000000003E-2</v>
-      </c>
-      <c r="B9" s="35">
+    <row r="19" spans="1:2">
+      <c r="A19" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="35">
         <v>0.57082378899999997</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="35">
-        <v>0.36641100999999998</v>
-      </c>
-      <c r="B10" s="35">
+    <row r="20" spans="1:2">
+      <c r="A20" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="35">
         <v>2.498550184</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="35">
-        <v>0.17541136800000001</v>
-      </c>
-      <c r="B11" s="35">
+    <row r="21" spans="1:2">
+      <c r="A21" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="35">
         <v>1.7149402920000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1935,7 +2039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>

--- a/individual_project.xlsx
+++ b/individual_project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="2400" windowWidth="26500" windowHeight="10320" tabRatio="840" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="2400" windowWidth="26500" windowHeight="10320" tabRatio="840" firstSheet="2" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="7" r:id="rId1"/>
@@ -397,12 +397,6 @@
     <t>T=45</t>
   </si>
   <si>
-    <t>Microplastic Ingestion (mm^3)</t>
-  </si>
-  <si>
-    <t>brine shrimp egg ingestion (mm^3)</t>
-  </si>
-  <si>
     <t>MP_count</t>
   </si>
   <si>
@@ -434,6 +428,12 @@
   </si>
   <si>
     <t>particles_consumed</t>
+  </si>
+  <si>
+    <t>bse_ingestion</t>
+  </si>
+  <si>
+    <t>microplastic_ingestion</t>
   </si>
 </sst>
 </file>
@@ -1852,16 +1852,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1946,7 +1946,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B12" s="35">
         <v>1.8526387230000001</v>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="81" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B13" s="35">
         <v>1.4360074229999999</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="81" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B14" s="35">
         <v>1.292946962</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="81" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B15" s="35">
         <v>0.87812581899999997</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="81" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B16" s="35">
         <v>0.69243697699999995</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="81" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B17" s="35">
         <v>0.39718788100000002</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="81" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B18" s="35">
         <v>1.9049306829999999</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="81" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B19" s="35">
         <v>0.57082378899999997</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="81" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B20" s="35">
         <v>2.498550184</v>
@@ -2018,7 +2018,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="81" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B21" s="35">
         <v>1.7149402920000001</v>
@@ -2047,10 +2047,10 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
         <v>65</v>
@@ -2155,13 +2155,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
         <v>128</v>
-      </c>
-      <c r="B1" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2252,13 +2252,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="81" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2341,7 +2341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2349,10 +2349,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="63" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B1" s="63" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -10643,13 +10643,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14">
       <c r="A1" s="82" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C1" s="82" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D1" s="17"/>
     </row>
@@ -10820,13 +10820,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>126</v>
-      </c>
       <c r="C1" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/individual_project.xlsx
+++ b/individual_project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="2400" windowWidth="26500" windowHeight="10320" tabRatio="840" firstSheet="2" activeTab="13"/>
+    <workbookView xWindow="120" yWindow="2400" windowWidth="26500" windowHeight="10320" tabRatio="840" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="7" r:id="rId1"/>
@@ -924,9 +924,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="84">
+  <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1163,7 +1169,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="84">
+  <cellStyles count="90">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1205,6 +1211,9 @@
     <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1246,6 +1255,9 @@
     <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -2341,7 +2353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -10812,8 +10824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -10834,10 +10846,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C2" s="14">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -10845,10 +10857,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C3" s="14">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -10856,10 +10868,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C4" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -10900,10 +10912,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C8" s="14">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -10911,10 +10923,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C9" s="14">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -10922,10 +10934,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C10" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
